--- a/biology/Histoire de la zoologie et de la botanique/Emanuel_Mendez_da_Costa/Emanuel_Mendez_da_Costa.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emanuel_Mendez_da_Costa/Emanuel_Mendez_da_Costa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emanuel Mendez da Costa est un naturaliste et un philosophe britannique, né le 5 juin 1717 et mort le 31 mai 1791. Membre de la Royal Society[1], de la Royal Antiquarian Society of London, de l’Aurelian Society et d’autres sociétés savantes. Il est l’auteur de différents ouvrages dont A Natural History of Fossils (1757), Elements of Conchology, or An Introduction to the Knowledge of Shells (1776), British Conchology (1778) et de plusieurs articles importants publiés notamment dans les Philosophical Transactions of the Royal Society.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emanuel Mendez da Costa est un naturaliste et un philosophe britannique, né le 5 juin 1717 et mort le 31 mai 1791. Membre de la Royal Society, de la Royal Antiquarian Society of London, de l’Aurelian Society et d’autres sociétés savantes. Il est l’auteur de différents ouvrages dont A Natural History of Fossils (1757), Elements of Conchology, or An Introduction to the Knowledge of Shells (1776), British Conchology (1778) et de plusieurs articles importants publiés notamment dans les Philosophical Transactions of the Royal Society.
 </t>
         </is>
       </c>
